--- a/config_11.3/game_module_config.xlsx
+++ b/config_11.3/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1102" uniqueCount="878">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3683,6 +3683,30 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_034_ldfl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福袋</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>立冬福利（小游戏）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_034_LDFDManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3836,7 +3860,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3934,6 +3958,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4213,13 +4243,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I289"/>
+  <dimension ref="A1:I290"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C269" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D277" sqref="D277"/>
+      <selection pane="bottomRight" activeCell="D289" sqref="D289"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11550,9 +11580,53 @@
         <v>871</v>
       </c>
     </row>
-    <row r="289" spans="1:1" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A289" s="31">
         <v>288</v>
+      </c>
+      <c r="B289" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C289" s="33" t="s">
+        <v>875</v>
+      </c>
+      <c r="D289" s="33" t="s">
+        <v>877</v>
+      </c>
+      <c r="E289" s="32">
+        <v>1</v>
+      </c>
+      <c r="F289" s="32">
+        <v>1</v>
+      </c>
+      <c r="G289" s="32">
+        <v>1</v>
+      </c>
+      <c r="I289" s="33" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" s="32" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A290" s="31">
+        <v>289</v>
+      </c>
+      <c r="B290" s="33" t="s">
+        <v>874</v>
+      </c>
+      <c r="C290" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="E290" s="32">
+        <v>1</v>
+      </c>
+      <c r="F290" s="32">
+        <v>1</v>
+      </c>
+      <c r="G290" s="32">
+        <v>1</v>
+      </c>
+      <c r="I290" s="34" t="s">
+        <v>873</v>
       </c>
     </row>
   </sheetData>
